--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H2">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I2">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J2">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.251702</v>
+        <v>9.893841500000001</v>
       </c>
       <c r="N2">
-        <v>26.503404</v>
+        <v>19.787683</v>
       </c>
       <c r="O2">
-        <v>0.5130816202012194</v>
+        <v>0.6947290445443095</v>
       </c>
       <c r="P2">
-        <v>0.4221151387296737</v>
+        <v>0.642702009564032</v>
       </c>
       <c r="Q2">
-        <v>20.19597814735801</v>
+        <v>28.02750670647525</v>
       </c>
       <c r="R2">
-        <v>80.78391258943202</v>
+        <v>112.110026825901</v>
       </c>
       <c r="S2">
-        <v>0.04633231778376249</v>
+        <v>0.1120746719726983</v>
       </c>
       <c r="T2">
-        <v>0.02898525008789511</v>
+        <v>0.08246973429411675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H3">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I3">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J3">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.445809000000001</v>
       </c>
       <c r="O3">
-        <v>0.0831899712511797</v>
+        <v>0.1508713182129547</v>
       </c>
       <c r="P3">
-        <v>0.1026612868392294</v>
+        <v>0.2093592462324126</v>
       </c>
       <c r="Q3">
-        <v>3.274533281487</v>
+        <v>6.0866130705705</v>
       </c>
       <c r="R3">
-        <v>19.647199688922</v>
+        <v>36.519678423423</v>
       </c>
       <c r="S3">
-        <v>0.00751222424011236</v>
+        <v>0.02433877442089157</v>
       </c>
       <c r="T3">
-        <v>0.00704941093166014</v>
+        <v>0.02686439617718893</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H4">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I4">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J4">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04544166666666666</v>
+        <v>0.096652</v>
       </c>
       <c r="N4">
-        <v>0.136325</v>
+        <v>0.289956</v>
       </c>
       <c r="O4">
-        <v>0.001759418070069571</v>
+        <v>0.00678674219849758</v>
       </c>
       <c r="P4">
-        <v>0.002171224733521882</v>
+        <v>0.009417742536362062</v>
       </c>
       <c r="Q4">
-        <v>0.06925441780833333</v>
+        <v>0.273798056922</v>
       </c>
       <c r="R4">
-        <v>0.41552650685</v>
+        <v>1.642788341532</v>
       </c>
       <c r="S4">
-        <v>0.0001588790436597357</v>
+        <v>0.00109484684947755</v>
       </c>
       <c r="T4">
-        <v>0.00014909081936163</v>
+        <v>0.001208458528317081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H5">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I5">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J5">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.4441595</v>
+        <v>2.0417745</v>
       </c>
       <c r="N5">
-        <v>2.888319</v>
+        <v>4.083549</v>
       </c>
       <c r="O5">
-        <v>0.05591520969072372</v>
+        <v>0.1433699991615931</v>
       </c>
       <c r="P5">
-        <v>0.04600175793949156</v>
+        <v>0.1326332723469035</v>
       </c>
       <c r="Q5">
-        <v>2.2009409586255</v>
+        <v>5.783986785300749</v>
       </c>
       <c r="R5">
-        <v>8.803763834502</v>
+        <v>23.135947141203</v>
       </c>
       <c r="S5">
-        <v>0.005049257588530104</v>
+        <v>0.02312865102293381</v>
       </c>
       <c r="T5">
-        <v>0.003158788529526966</v>
+        <v>0.01701913260926032</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H6">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I6">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J6">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>8.876699666666667</v>
+        <v>0.04454</v>
       </c>
       <c r="N6">
-        <v>26.630099</v>
+        <v>0.13362</v>
       </c>
       <c r="O6">
-        <v>0.3436895462192673</v>
+        <v>0.003127524495313933</v>
       </c>
       <c r="P6">
-        <v>0.424132988116166</v>
+        <v>0.004339964538442725</v>
       </c>
       <c r="Q6">
-        <v>13.52834771629033</v>
+        <v>0.12617395869</v>
       </c>
       <c r="R6">
-        <v>81.170086297742</v>
+        <v>0.7570437521400001</v>
       </c>
       <c r="S6">
-        <v>0.03103586768152639</v>
+        <v>0.0005045366746237023</v>
       </c>
       <c r="T6">
-        <v>0.02912380912958975</v>
+        <v>0.0005568921786537555</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H7">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I7">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J7">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.06106266666666666</v>
+        <v>0.01588433333333333</v>
       </c>
       <c r="N7">
-        <v>0.183188</v>
+        <v>0.047653</v>
       </c>
       <c r="O7">
-        <v>0.002364234567540103</v>
+        <v>0.001115371387331199</v>
       </c>
       <c r="P7">
-        <v>0.002917603641917523</v>
+        <v>0.001547764781847113</v>
       </c>
       <c r="Q7">
-        <v>0.09306127481733333</v>
+        <v>0.0449975127485</v>
       </c>
       <c r="R7">
-        <v>0.558367648904</v>
+        <v>0.269985076491</v>
       </c>
       <c r="S7">
-        <v>0.0002134952081418644</v>
+        <v>0.0001799332895961928</v>
       </c>
       <c r="T7">
-        <v>0.0002003421897466955</v>
+        <v>0.0001986048719457223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>25.508625</v>
       </c>
       <c r="I8">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J8">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.251702</v>
+        <v>9.893841500000001</v>
       </c>
       <c r="N8">
-        <v>26.503404</v>
+        <v>19.787683</v>
       </c>
       <c r="O8">
-        <v>0.5130816202012194</v>
+        <v>0.6947290445443095</v>
       </c>
       <c r="P8">
-        <v>0.4221151387296737</v>
+        <v>0.642702009564032</v>
       </c>
       <c r="Q8">
-        <v>112.67756564325</v>
+        <v>84.12609754431251</v>
       </c>
       <c r="R8">
-        <v>676.0653938595001</v>
+        <v>504.7565852658751</v>
       </c>
       <c r="S8">
-        <v>0.2584976444513914</v>
+        <v>0.3363982706475914</v>
       </c>
       <c r="T8">
-        <v>0.2425721147771248</v>
+        <v>0.3713061413741915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>25.508625</v>
       </c>
       <c r="I9">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J9">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>6.445809000000001</v>
       </c>
       <c r="O9">
-        <v>0.0831899712511797</v>
+        <v>0.1508713182129547</v>
       </c>
       <c r="P9">
-        <v>0.1026612868392294</v>
+        <v>0.2093592462324126</v>
       </c>
       <c r="Q9">
         <v>18.269302733625</v>
@@ -1013,10 +1013,10 @@
         <v>164.423724602625</v>
       </c>
       <c r="S9">
-        <v>0.04191226261812957</v>
+        <v>0.07305416541271929</v>
       </c>
       <c r="T9">
-        <v>0.05899519626156036</v>
+        <v>0.1209524363122775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>25.508625</v>
       </c>
       <c r="I10">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J10">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04544166666666666</v>
+        <v>0.096652</v>
       </c>
       <c r="N10">
-        <v>0.136325</v>
+        <v>0.289956</v>
       </c>
       <c r="O10">
-        <v>0.001759418070069571</v>
+        <v>0.00678674219849758</v>
       </c>
       <c r="P10">
-        <v>0.002171224733521882</v>
+        <v>0.009417742536362062</v>
       </c>
       <c r="Q10">
-        <v>0.3863848114583334</v>
+        <v>0.8218198745000002</v>
       </c>
       <c r="R10">
-        <v>3.477463303125</v>
+        <v>7.3963788705</v>
       </c>
       <c r="S10">
-        <v>0.0008864192534120254</v>
+        <v>0.003286242826371436</v>
       </c>
       <c r="T10">
-        <v>0.001247713069120915</v>
+        <v>0.00544088176105788</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>25.508625</v>
       </c>
       <c r="I11">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J11">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.4441595</v>
+        <v>2.0417745</v>
       </c>
       <c r="N11">
-        <v>2.888319</v>
+        <v>4.083549</v>
       </c>
       <c r="O11">
-        <v>0.05591520969072372</v>
+        <v>0.1433699991615931</v>
       </c>
       <c r="P11">
-        <v>0.04600175793949156</v>
+        <v>0.1326332723469035</v>
       </c>
       <c r="Q11">
-        <v>12.2795077085625</v>
+        <v>17.3609533516875</v>
       </c>
       <c r="R11">
-        <v>73.677046251375</v>
+        <v>104.165720110125</v>
       </c>
       <c r="S11">
-        <v>0.02817085903094555</v>
+        <v>0.06942191370787075</v>
       </c>
       <c r="T11">
-        <v>0.02643530800726391</v>
+        <v>0.07662578899724835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>25.508625</v>
       </c>
       <c r="I12">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J12">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>8.876699666666667</v>
+        <v>0.04454</v>
       </c>
       <c r="N12">
-        <v>26.630099</v>
+        <v>0.13362</v>
       </c>
       <c r="O12">
-        <v>0.3436895462192673</v>
+        <v>0.003127524495313933</v>
       </c>
       <c r="P12">
-        <v>0.424132988116166</v>
+        <v>0.004339964538442725</v>
       </c>
       <c r="Q12">
-        <v>75.47746767820834</v>
+        <v>0.3787180525000001</v>
       </c>
       <c r="R12">
-        <v>679.297209103875</v>
+        <v>3.408462472500001</v>
       </c>
       <c r="S12">
-        <v>0.1731555655519408</v>
+        <v>0.001514394482127465</v>
       </c>
       <c r="T12">
-        <v>0.243731689376738</v>
+        <v>0.002507313595554339</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>25.508625</v>
       </c>
       <c r="I13">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J13">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.06106266666666666</v>
+        <v>0.01588433333333333</v>
       </c>
       <c r="N13">
-        <v>0.183188</v>
+        <v>0.047653</v>
       </c>
       <c r="O13">
-        <v>0.002364234567540103</v>
+        <v>0.001115371387331199</v>
       </c>
       <c r="P13">
-        <v>0.002917603641917523</v>
+        <v>0.001547764781847113</v>
       </c>
       <c r="Q13">
-        <v>0.5192082218333334</v>
+        <v>0.1350625007916667</v>
       </c>
       <c r="R13">
-        <v>4.6728739965</v>
+        <v>1.215562507125</v>
       </c>
       <c r="S13">
-        <v>0.00119113420278043</v>
+        <v>0.0005400796307201024</v>
       </c>
       <c r="T13">
-        <v>0.001676626163257819</v>
+        <v>0.0008941851127746663</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H14">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I14">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J14">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.251702</v>
+        <v>9.893841500000001</v>
       </c>
       <c r="N14">
-        <v>26.503404</v>
+        <v>19.787683</v>
       </c>
       <c r="O14">
-        <v>0.5130816202012194</v>
+        <v>0.6947290445443095</v>
       </c>
       <c r="P14">
-        <v>0.4221151387296737</v>
+        <v>0.642702009564032</v>
       </c>
       <c r="Q14">
-        <v>5.155711597354001</v>
+        <v>1.801952160606334</v>
       </c>
       <c r="R14">
-        <v>30.934269584124</v>
+        <v>10.811712963638</v>
       </c>
       <c r="S14">
-        <v>0.01182790288180642</v>
+        <v>0.007205535598490898</v>
       </c>
       <c r="T14">
-        <v>0.01109920913015418</v>
+        <v>0.007953250218734996</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H15">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I15">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J15">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>6.445809000000001</v>
       </c>
       <c r="O15">
-        <v>0.0831899712511797</v>
+        <v>0.1508713182129547</v>
       </c>
       <c r="P15">
-        <v>0.1026612868392294</v>
+        <v>0.2093592462324126</v>
       </c>
       <c r="Q15">
-        <v>0.8359361993810001</v>
+        <v>0.3913221995860001</v>
       </c>
       <c r="R15">
-        <v>7.523425794429</v>
+        <v>3.521899796274</v>
       </c>
       <c r="S15">
-        <v>0.001917751215319959</v>
+        <v>0.001564795171170302</v>
       </c>
       <c r="T15">
-        <v>0.002699403522054375</v>
+        <v>0.002590759708409217</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H16">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I16">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J16">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.04544166666666666</v>
+        <v>0.096652</v>
       </c>
       <c r="N16">
-        <v>0.136325</v>
+        <v>0.289956</v>
       </c>
       <c r="O16">
-        <v>0.001759418070069571</v>
+        <v>0.00678674219849758</v>
       </c>
       <c r="P16">
-        <v>0.002171224733521882</v>
+        <v>0.009417742536362062</v>
       </c>
       <c r="Q16">
-        <v>0.01767954998055556</v>
+        <v>0.01760309989066667</v>
       </c>
       <c r="R16">
-        <v>0.159115949825</v>
+        <v>0.158427899016</v>
       </c>
       <c r="S16">
-        <v>4.055928967620564E-05</v>
+        <v>7.039019441188159E-05</v>
       </c>
       <c r="T16">
-        <v>5.709076783753019E-05</v>
+        <v>0.0001165418215171288</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H17">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I17">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J17">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.4441595</v>
+        <v>2.0417745</v>
       </c>
       <c r="N17">
-        <v>2.888319</v>
+        <v>4.083549</v>
       </c>
       <c r="O17">
-        <v>0.05591520969072372</v>
+        <v>0.1433699991615931</v>
       </c>
       <c r="P17">
-        <v>0.04600175793949156</v>
+        <v>0.1326332723469035</v>
       </c>
       <c r="Q17">
-        <v>0.5618651764565</v>
+        <v>0.371865667319</v>
       </c>
       <c r="R17">
-        <v>3.371191058739</v>
+        <v>2.231194003914</v>
       </c>
       <c r="S17">
-        <v>0.001288995052245978</v>
+        <v>0.001486993585235922</v>
       </c>
       <c r="T17">
-        <v>0.001209582611184503</v>
+        <v>0.001641298123558229</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H18">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I18">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J18">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>8.876699666666667</v>
+        <v>0.04454</v>
       </c>
       <c r="N18">
-        <v>26.630099</v>
+        <v>0.13362</v>
       </c>
       <c r="O18">
-        <v>0.3436895462192673</v>
+        <v>0.003127524495313933</v>
       </c>
       <c r="P18">
-        <v>0.424132988116166</v>
+        <v>0.004339964538442725</v>
       </c>
       <c r="Q18">
-        <v>3.453571731213223</v>
+        <v>0.008112010813333334</v>
       </c>
       <c r="R18">
-        <v>31.082145580919</v>
+        <v>0.07300809732000002</v>
       </c>
       <c r="S18">
-        <v>0.00792296276872939</v>
+        <v>3.243781048612762E-05</v>
       </c>
       <c r="T18">
-        <v>0.0111522670053141</v>
+        <v>5.370579740070479E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H19">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I19">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J19">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.06106266666666666</v>
+        <v>0.01588433333333333</v>
       </c>
       <c r="N19">
-        <v>0.183188</v>
+        <v>0.047653</v>
       </c>
       <c r="O19">
-        <v>0.002364234567540103</v>
+        <v>0.001115371387331199</v>
       </c>
       <c r="P19">
-        <v>0.002917603641917523</v>
+        <v>0.001547764781847113</v>
       </c>
       <c r="Q19">
-        <v>0.02375706144755555</v>
+        <v>0.002892992450888889</v>
       </c>
       <c r="R19">
-        <v>0.213813553028</v>
+        <v>0.026036932058</v>
       </c>
       <c r="S19">
-        <v>5.450192669873286E-05</v>
+        <v>1.156832048417482E-05</v>
       </c>
       <c r="T19">
-        <v>7.671625584904807E-05</v>
+        <v>1.915313847878899E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H20">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I20">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J20">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.251702</v>
+        <v>9.893841500000001</v>
       </c>
       <c r="N20">
-        <v>26.503404</v>
+        <v>19.787683</v>
       </c>
       <c r="O20">
-        <v>0.5130816202012194</v>
+        <v>0.6947290445443095</v>
       </c>
       <c r="P20">
-        <v>0.4221151387296737</v>
+        <v>0.642702009564032</v>
       </c>
       <c r="Q20">
-        <v>62.51942301538201</v>
+        <v>56.33647836286325</v>
       </c>
       <c r="R20">
-        <v>250.077692061528</v>
+        <v>225.345913451453</v>
       </c>
       <c r="S20">
-        <v>0.1434280505589223</v>
+        <v>0.2252748486955567</v>
       </c>
       <c r="T20">
-        <v>0.08972782096661228</v>
+        <v>0.1657676671103321</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H21">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I21">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J21">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>6.445809000000001</v>
       </c>
       <c r="O21">
-        <v>0.0831899712511797</v>
+        <v>0.1508713182129547</v>
       </c>
       <c r="P21">
-        <v>0.1026612868392294</v>
+        <v>0.2093592462324126</v>
       </c>
       <c r="Q21">
-        <v>10.136767326123</v>
+        <v>12.2343506735865</v>
       </c>
       <c r="R21">
-        <v>60.820603956738</v>
+        <v>73.406104041519</v>
       </c>
       <c r="S21">
-        <v>0.02325512147157038</v>
+        <v>0.04892196986699446</v>
       </c>
       <c r="T21">
-        <v>0.0218224193366625</v>
+        <v>0.05399857682017559</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H22">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I22">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J22">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.04544166666666666</v>
+        <v>0.096652</v>
       </c>
       <c r="N22">
-        <v>0.136325</v>
+        <v>0.289956</v>
       </c>
       <c r="O22">
-        <v>0.001759418070069571</v>
+        <v>0.00678674219849758</v>
       </c>
       <c r="P22">
-        <v>0.002171224733521882</v>
+        <v>0.009417742536362062</v>
       </c>
       <c r="Q22">
-        <v>0.2143865581083333</v>
+        <v>0.550345718266</v>
       </c>
       <c r="R22">
-        <v>1.28631934865</v>
+        <v>3.302074309596</v>
       </c>
       <c r="S22">
-        <v>0.0004918318917938512</v>
+        <v>0.00220068864819827</v>
       </c>
       <c r="T22">
-        <v>0.0004615310996758537</v>
+        <v>0.002429052945948419</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H23">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I23">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J23">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.4441595</v>
+        <v>2.0417745</v>
       </c>
       <c r="N23">
-        <v>2.888319</v>
+        <v>4.083549</v>
       </c>
       <c r="O23">
-        <v>0.05591520969072372</v>
+        <v>0.1433699991615931</v>
       </c>
       <c r="P23">
-        <v>0.04600175793949156</v>
+        <v>0.1326332723469035</v>
       </c>
       <c r="Q23">
-        <v>6.8133148996395</v>
+        <v>11.62605899246475</v>
       </c>
       <c r="R23">
-        <v>27.253259598558</v>
+        <v>46.50423596985899</v>
       </c>
       <c r="S23">
-        <v>0.01563067006646754</v>
+        <v>0.04648957046238773</v>
       </c>
       <c r="T23">
-        <v>0.009778463556095081</v>
+        <v>0.03420917907673826</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H24">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I24">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J24">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>8.876699666666667</v>
+        <v>0.04454</v>
       </c>
       <c r="N24">
-        <v>26.630099</v>
+        <v>0.13362</v>
       </c>
       <c r="O24">
-        <v>0.3436895462192673</v>
+        <v>0.003127524495313933</v>
       </c>
       <c r="P24">
-        <v>0.424132988116166</v>
+        <v>0.004339964538442725</v>
       </c>
       <c r="Q24">
-        <v>41.87885763208634</v>
+        <v>0.25361501357</v>
       </c>
       <c r="R24">
-        <v>251.273145792518</v>
+        <v>1.52169008142</v>
       </c>
       <c r="S24">
-        <v>0.09607578925235682</v>
+        <v>0.001014140135649039</v>
       </c>
       <c r="T24">
-        <v>0.09015674950263598</v>
+        <v>0.001119376921455765</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H25">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I25">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J25">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.06106266666666666</v>
+        <v>0.01588433333333333</v>
       </c>
       <c r="N25">
-        <v>0.183188</v>
+        <v>0.047653</v>
       </c>
       <c r="O25">
-        <v>0.002364234567540103</v>
+        <v>0.001115371387331199</v>
       </c>
       <c r="P25">
-        <v>0.002917603641917523</v>
+        <v>0.001547764781847113</v>
       </c>
       <c r="Q25">
-        <v>0.2880839523693333</v>
+        <v>0.09044691095383332</v>
       </c>
       <c r="R25">
-        <v>1.728503714216</v>
+        <v>0.5426814657229999</v>
       </c>
       <c r="S25">
-        <v>0.0006609037270781735</v>
+        <v>0.0003616735509959862</v>
       </c>
       <c r="T25">
-        <v>0.0006201867528877335</v>
+        <v>0.0003992042242039482</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H26">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I26">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J26">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.251702</v>
+        <v>9.893841500000001</v>
       </c>
       <c r="N26">
-        <v>26.503404</v>
+        <v>19.787683</v>
       </c>
       <c r="O26">
-        <v>0.5130816202012194</v>
+        <v>0.6947290445443095</v>
       </c>
       <c r="P26">
-        <v>0.4221151387296737</v>
+        <v>0.642702009564032</v>
       </c>
       <c r="Q26">
-        <v>17.16102034851</v>
+        <v>1.632998327258</v>
       </c>
       <c r="R26">
-        <v>102.96612209106</v>
+        <v>9.797989963548</v>
       </c>
       <c r="S26">
-        <v>0.03936971225059455</v>
+        <v>0.006529933389227321</v>
       </c>
       <c r="T26">
-        <v>0.03694422198338214</v>
+        <v>0.007207541125336201</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H27">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I27">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J27">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>6.445809000000001</v>
       </c>
       <c r="O27">
-        <v>0.0831899712511797</v>
+        <v>0.1508713182129547</v>
       </c>
       <c r="P27">
-        <v>0.1026612868392294</v>
+        <v>0.2093592462324126</v>
       </c>
       <c r="Q27">
-        <v>2.782451628015</v>
+        <v>0.354631222356</v>
       </c>
       <c r="R27">
-        <v>25.042064652135</v>
+        <v>3.191681001204</v>
       </c>
       <c r="S27">
-        <v>0.006383322070686783</v>
+        <v>0.001418077545500804</v>
       </c>
       <c r="T27">
-        <v>0.008985087295144521</v>
+        <v>0.002347846054212725</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H28">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I28">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J28">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.04544166666666666</v>
+        <v>0.096652</v>
       </c>
       <c r="N28">
-        <v>0.136325</v>
+        <v>0.289956</v>
       </c>
       <c r="O28">
-        <v>0.001759418070069571</v>
+        <v>0.00678674219849758</v>
       </c>
       <c r="P28">
-        <v>0.002171224733521882</v>
+        <v>0.009417742536362062</v>
       </c>
       <c r="Q28">
-        <v>0.05884718554166666</v>
+        <v>0.015952605904</v>
       </c>
       <c r="R28">
-        <v>0.529624669875</v>
+        <v>0.143573453136</v>
       </c>
       <c r="S28">
-        <v>0.0001350034388680111</v>
+        <v>6.379030045464131E-05</v>
       </c>
       <c r="T28">
-        <v>0.000190029215186267</v>
+        <v>0.0001056146793203622</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H29">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I29">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J29">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.4441595</v>
+        <v>2.0417745</v>
       </c>
       <c r="N29">
-        <v>2.888319</v>
+        <v>4.083549</v>
       </c>
       <c r="O29">
-        <v>0.05591520969072372</v>
+        <v>0.1433699991615931</v>
       </c>
       <c r="P29">
-        <v>0.04600175793949156</v>
+        <v>0.1326332723469035</v>
       </c>
       <c r="Q29">
-        <v>1.8701937732975</v>
+        <v>0.336998964774</v>
       </c>
       <c r="R29">
-        <v>11.221162639785</v>
+        <v>2.021993788644</v>
       </c>
       <c r="S29">
-        <v>0.004290478608631743</v>
+        <v>0.001347570757104095</v>
       </c>
       <c r="T29">
-        <v>0.004026150689731036</v>
+        <v>0.001487407462249396</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H30">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I30">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J30">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>8.876699666666667</v>
+        <v>0.04454</v>
       </c>
       <c r="N30">
-        <v>26.630099</v>
+        <v>0.13362</v>
       </c>
       <c r="O30">
-        <v>0.3436895462192673</v>
+        <v>0.003127524495313933</v>
       </c>
       <c r="P30">
-        <v>0.424132988116166</v>
+        <v>0.004339964538442725</v>
       </c>
       <c r="Q30">
-        <v>11.49537045183167</v>
+        <v>0.007351416080000001</v>
       </c>
       <c r="R30">
-        <v>103.458334066485</v>
+        <v>0.06616274472</v>
       </c>
       <c r="S30">
-        <v>0.02637194162769546</v>
+        <v>2.93963909929409E-05</v>
       </c>
       <c r="T30">
-        <v>0.03712082753201976</v>
+        <v>4.86702584212322E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H31">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I31">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J31">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.06106266666666666</v>
+        <v>0.01588433333333333</v>
       </c>
       <c r="N31">
-        <v>0.183188</v>
+        <v>0.047653</v>
       </c>
       <c r="O31">
-        <v>0.002364234567540103</v>
+        <v>0.001115371387331199</v>
       </c>
       <c r="P31">
-        <v>0.002917603641917523</v>
+        <v>0.001547764781847113</v>
       </c>
       <c r="Q31">
-        <v>0.07907645864666665</v>
+        <v>0.002621740985333334</v>
       </c>
       <c r="R31">
-        <v>0.71168812782</v>
+        <v>0.023595668868</v>
       </c>
       <c r="S31">
-        <v>0.0001814121398082025</v>
+        <v>1.048365678780581E-05</v>
       </c>
       <c r="T31">
-        <v>0.0002553535438954109</v>
+        <v>1.735731046659915E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H32">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I32">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J32">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.251702</v>
+        <v>9.893841500000001</v>
       </c>
       <c r="N32">
-        <v>26.503404</v>
+        <v>19.787683</v>
       </c>
       <c r="O32">
-        <v>0.5130816202012194</v>
+        <v>0.6947290445443095</v>
       </c>
       <c r="P32">
-        <v>0.4221151387296737</v>
+        <v>0.642702009564032</v>
       </c>
       <c r="Q32">
-        <v>5.939487929378001</v>
+        <v>1.812017495359</v>
       </c>
       <c r="R32">
-        <v>35.636927576268</v>
+        <v>10.872104972154</v>
       </c>
       <c r="S32">
-        <v>0.01362599227474223</v>
+        <v>0.007245784240744898</v>
       </c>
       <c r="T32">
-        <v>0.01278652178450517</v>
+        <v>0.007997675441320457</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H33">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I33">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J33">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>6.445809000000001</v>
       </c>
       <c r="O33">
-        <v>0.0831899712511797</v>
+        <v>0.1508713182129547</v>
       </c>
       <c r="P33">
-        <v>0.1026612868392294</v>
+        <v>0.2093592462324126</v>
       </c>
       <c r="Q33">
-        <v>0.963016040017</v>
+        <v>0.393508045038</v>
       </c>
       <c r="R33">
-        <v>8.667144360153001</v>
+        <v>3.541572405342</v>
       </c>
       <c r="S33">
-        <v>0.002209289635360648</v>
+        <v>0.001573535795678272</v>
       </c>
       <c r="T33">
-        <v>0.00310976949214748</v>
+        <v>0.002605231160148582</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H34">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I34">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J34">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.04544166666666666</v>
+        <v>0.096652</v>
       </c>
       <c r="N34">
-        <v>0.136325</v>
+        <v>0.289956</v>
       </c>
       <c r="O34">
-        <v>0.001759418070069571</v>
+        <v>0.00678674219849758</v>
       </c>
       <c r="P34">
-        <v>0.002171224733521882</v>
+        <v>0.009417742536362062</v>
       </c>
       <c r="Q34">
-        <v>0.02036721250277778</v>
+        <v>0.017701427192</v>
       </c>
       <c r="R34">
-        <v>0.183304912525</v>
+        <v>0.159312844728</v>
       </c>
       <c r="S34">
-        <v>4.672515265974223E-05</v>
+        <v>7.078337958380229E-05</v>
       </c>
       <c r="T34">
-        <v>6.576976233968538E-05</v>
+        <v>0.0001171928002011915</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H35">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I35">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J35">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.4441595</v>
+        <v>2.0417745</v>
       </c>
       <c r="N35">
-        <v>2.888319</v>
+        <v>4.083549</v>
       </c>
       <c r="O35">
-        <v>0.05591520969072372</v>
+        <v>0.1433699991615931</v>
       </c>
       <c r="P35">
-        <v>0.04600175793949156</v>
+        <v>0.1326332723469035</v>
       </c>
       <c r="Q35">
-        <v>0.6472804714705001</v>
+        <v>0.373942832577</v>
       </c>
       <c r="R35">
-        <v>3.883682828823</v>
+        <v>2.243656995462</v>
       </c>
       <c r="S35">
-        <v>0.001484949343902813</v>
+        <v>0.001495299626060797</v>
       </c>
       <c r="T35">
-        <v>0.001393464545690062</v>
+        <v>0.001650466077848968</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H36">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I36">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J36">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>8.876699666666667</v>
+        <v>0.04454</v>
       </c>
       <c r="N36">
-        <v>26.630099</v>
+        <v>0.13362</v>
       </c>
       <c r="O36">
-        <v>0.3436895462192673</v>
+        <v>0.003127524495313933</v>
       </c>
       <c r="P36">
-        <v>0.424132988116166</v>
+        <v>0.004339964538442725</v>
       </c>
       <c r="Q36">
-        <v>3.978587091898111</v>
+        <v>0.00815732284</v>
       </c>
       <c r="R36">
-        <v>35.807283827083</v>
+        <v>0.07341590556000001</v>
       </c>
       <c r="S36">
-        <v>0.009127419337018513</v>
+        <v>3.261900143465789E-05</v>
       </c>
       <c r="T36">
-        <v>0.01284764556986828</v>
+        <v>5.400578695692868E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H37">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I37">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J37">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2731,28 +2731,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.06106266666666666</v>
+        <v>0.01588433333333333</v>
       </c>
       <c r="N37">
-        <v>0.183188</v>
+        <v>0.047653</v>
       </c>
       <c r="O37">
-        <v>0.002364234567540103</v>
+        <v>0.001115371387331199</v>
       </c>
       <c r="P37">
-        <v>0.002917603641917523</v>
+        <v>0.001547764781847113</v>
       </c>
       <c r="Q37">
-        <v>0.02736863322177778</v>
+        <v>0.002909152112666667</v>
       </c>
       <c r="R37">
-        <v>0.246317698996</v>
+        <v>0.026182369014</v>
       </c>
       <c r="S37">
-        <v>6.278736303270022E-05</v>
+        <v>1.163293874693723E-05</v>
       </c>
       <c r="T37">
-        <v>8.837873628081632E-05</v>
+        <v>1.926012397738754E-05</v>
       </c>
     </row>
   </sheetData>
